--- a/result/compare/hybride/result-large.xlsx
+++ b/result/compare/hybride/result-large.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\hybride\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6BFD3F-58A0-4E6B-84D0-2F5EBBE32925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7516DCA7-6CC9-4996-83DF-D26ADAB09172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -497,7 +495,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.49056603773584906</c:v>
+                  <c:v>0.33962264150943394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,7 +507,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77142857142857146</c:v>
+                  <c:v>0.82857142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1038,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.76315789473684215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1050,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77142857142857146</c:v>
+                  <c:v>0.82857142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,13 +3171,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>666016</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>53731</xdr:rowOff>
+      <xdr:rowOff>50556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>434241</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>191965</xdr:rowOff>
+      <xdr:colOff>431066</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1465</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3194,10 +3192,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8276491" y="2765181"/>
-          <a:ext cx="7375525" cy="4475284"/>
-          <a:chOff x="8950324" y="3302000"/>
-          <a:chExt cx="8023225" cy="4705349"/>
+          <a:off x="8276491" y="2762006"/>
+          <a:ext cx="7372350" cy="4478459"/>
+          <a:chOff x="8946871" y="3305336"/>
+          <a:chExt cx="8026780" cy="4702013"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3213,10 +3211,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="8950324" y="3302000"/>
-            <a:ext cx="8023225" cy="4705349"/>
-            <a:chOff x="8950324" y="3302000"/>
-            <a:chExt cx="8023225" cy="4705349"/>
+            <a:off x="8946871" y="3305336"/>
+            <a:ext cx="8026780" cy="4702013"/>
+            <a:chOff x="8946871" y="3305336"/>
+            <a:chExt cx="8026780" cy="4702013"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:graphicFrame macro="">
@@ -3231,8 +3229,8 @@
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="8950324" y="3302000"/>
-            <a:ext cx="8023225" cy="4705349"/>
+            <a:off x="8946871" y="3305336"/>
+            <a:ext cx="8026780" cy="4702013"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3253,8 +3251,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9550653" y="3763823"/>
-              <a:ext cx="7243746" cy="3399392"/>
+              <a:off x="9547466" y="3766831"/>
+              <a:ext cx="7246955" cy="3396982"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3336,15 +3334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3372,15 +3370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>474656</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133684</xdr:rowOff>
+      <xdr:colOff>268281</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>683354</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86788</xdr:rowOff>
+      <xdr:colOff>476979</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>96313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3397,8 +3395,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9542902" y="3416374"/>
-          <a:ext cx="5155013" cy="2463396"/>
+          <a:off x="8631231" y="2673684"/>
+          <a:ext cx="4780698" cy="2308954"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3436,9 +3434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>720189</xdr:colOff>
+      <xdr:colOff>717014</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82698</xdr:rowOff>
+      <xdr:rowOff>85873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3455,8 +3453,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9543567" y="3416374"/>
-          <a:ext cx="4366797" cy="2073108"/>
+          <a:off x="8838271" y="3210259"/>
+          <a:ext cx="4051693" cy="1942914"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3787,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M4"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3840,16 +3838,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G4" si="0">C3+F3</f>
@@ -3861,23 +3859,23 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I4" si="2">C3/G3</f>
-        <v>0.77142857142857146</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J4" si="3">D3/H3</f>
-        <v>0.49056603773584906</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K4" si="4">I3</f>
-        <v>0.77142857142857146</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L4" si="5">C3/(C3+D3)</f>
-        <v>0.67500000000000004</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3" si="6">(C3+E3)/(G3+H3)</f>
-        <v>0.65853658536585369</v>
+        <v>0.75609756097560976</v>
       </c>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">

--- a/result/compare/hybride/result-large.xlsx
+++ b/result/compare/hybride/result-large.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\hybride\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7516DCA7-6CC9-4996-83DF-D26ADAB09172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702540E-F09C-4A6B-ABB6-20E4AC82CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="57480" yWindow="8370" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Modèle</t>
   </si>
@@ -74,7 +74,10 @@
     <t>yolov5m</t>
   </si>
   <si>
-    <t>depthmap</t>
+    <t>hybride</t>
+  </si>
+  <si>
+    <t>depthmap only</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -464,30 +467,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-60D3-4F12-8182-811107DCCBD5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$J$3</c:f>
@@ -495,7 +474,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.33962264150943394</c:v>
+                  <c:v>0.49056603773584906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,7 +486,74 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.82857142857142863</c:v>
+                  <c:v>0.77142857142857146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B210-406A-ADFD-C9E2AF4F2805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depthmap only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.30188679245283018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,14 +567,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$4</c:f>
+              <c:f>Feuil1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap</c:v>
+                  <c:v>hybride</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -557,24 +603,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$J$4</c:f>
+              <c:f>Feuil1!$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.30188679245283018</c:v>
+                  <c:v>0.33962264150943394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$I$4</c:f>
+              <c:f>Feuil1!$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82857142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +1018,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1007,30 +1053,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-EA87-4F2C-9C3C-DCC55904A3E6}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$L$3</c:f>
@@ -1038,7 +1060,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.76315789473684215</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,7 +1072,74 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.82857142857142863</c:v>
+                  <c:v>0.77142857142857146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BF2-FB48-836A-FE1FBAD5C74E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depthmap only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75384615384615383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,14 +1153,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$4</c:f>
+              <c:f>Feuil1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap</c:v>
+                  <c:v>hybride</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1100,24 +1189,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$L$4</c:f>
+              <c:f>Feuil1!$L$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.75384615384615383</c:v>
+                  <c:v>0.76315789473684215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$K$4</c:f>
+              <c:f>Feuil1!$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82857142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,13 +3223,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3169,15 +3258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666016</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50556</xdr:rowOff>
+      <xdr:colOff>627943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>431066</xdr:colOff>
+      <xdr:colOff>389818</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>1465</xdr:rowOff>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3192,10 +3281,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8276491" y="2762006"/>
-          <a:ext cx="7372350" cy="4478459"/>
-          <a:chOff x="8946871" y="3305336"/>
-          <a:chExt cx="8026780" cy="4702013"/>
+          <a:off x="8247943" y="2510902"/>
+          <a:ext cx="7385050" cy="4822289"/>
+          <a:chOff x="8950324" y="2912317"/>
+          <a:chExt cx="8023225" cy="5095032"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3211,10 +3300,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="8946871" y="3305336"/>
-            <a:ext cx="8026780" cy="4702013"/>
-            <a:chOff x="8946871" y="3305336"/>
-            <a:chExt cx="8026780" cy="4702013"/>
+            <a:off x="8950324" y="2912317"/>
+            <a:ext cx="8023225" cy="5095032"/>
+            <a:chOff x="8950324" y="2912317"/>
+            <a:chExt cx="8023225" cy="5095032"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:graphicFrame macro="">
@@ -3229,8 +3318,8 @@
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="8946871" y="3305336"/>
-            <a:ext cx="8026780" cy="4702013"/>
+            <a:off x="8950324" y="3302000"/>
+            <a:ext cx="8023225" cy="4705349"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3251,8 +3340,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9547466" y="3766831"/>
-              <a:ext cx="7246955" cy="3396982"/>
+              <a:off x="9530831" y="3758299"/>
+              <a:ext cx="7229306" cy="3437397"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3260,6 +3349,92 @@
             <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="Connecteur droit 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1743BA2D-E573-E145-B0DA-DF474AD08C81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9312291" y="3178652"/>
+              <a:ext cx="5831287" cy="2782724"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="Connecteur droit 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596D7155-0716-0348-90E0-6CBF9E37E6AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9069301" y="2912317"/>
+              <a:ext cx="6000894" cy="2862300"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3334,15 +3509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3365,122 +3540,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>268281</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>140034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476979</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>96313</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Connecteur droit 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF8E446-E106-1849-97E8-89621DA89950}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeAspect="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8631231" y="2673684"/>
-          <a:ext cx="4780698" cy="2308954"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475321</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>717014</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85873</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Connecteur droit 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7D044F-429C-D948-B5BB-1E3FEB931607}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeAspect="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8838271" y="3210259"/>
-          <a:ext cx="4051693" cy="1942914"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3783,19 +3842,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
-  <dimension ref="B2:M4"/>
+  <dimension ref="B2:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="8" width="10.90625" style="2"/>
-    <col min="10" max="11" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3820,10 +3878,10 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
       <c r="L2" t="s">
@@ -3832,55 +3890,58 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G4" si="0">C3+F3</f>
+        <f t="shared" ref="G3:G5" si="0">C3+F3</f>
         <v>70</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H4" si="1">D3+E3</f>
+        <f t="shared" ref="H3:H5" si="1">D3+E3</f>
         <v>53</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I4" si="2">C3/G3</f>
-        <v>0.82857142857142863</v>
+        <f t="shared" ref="I3:I5" si="2">C3/G3</f>
+        <v>0.77142857142857146</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J4" si="3">D3/H3</f>
-        <v>0.33962264150943394</v>
+        <f t="shared" ref="J3:J5" si="3">D3/H3</f>
+        <v>0.49056603773584906</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K4" si="4">I3</f>
-        <v>0.82857142857142863</v>
+        <f t="shared" ref="K3:K5" si="4">I3</f>
+        <v>0.77142857142857146</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L4" si="5">C3/(C3+D3)</f>
-        <v>0.76315789473684215</v>
+        <f t="shared" ref="L3:L5" si="5">C3/(C3+D3)</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3" si="6">(C3+E3)/(G3+H3)</f>
-        <v>0.75609756097560976</v>
+        <f t="shared" ref="M3:M5" si="6">(C3+E3)/(G3+H3)</f>
+        <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>49</v>
@@ -3919,8 +3980,53 @@
         <v>0.75384615384615383</v>
       </c>
       <c r="M4" s="1">
-        <f>(C4+E4)/(G4+H4)</f>
+        <f t="shared" si="6"/>
         <v>0.69918699186991873</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.75609756097560976</v>
       </c>
     </row>
   </sheetData>

--- a/result/compare/hybride/result-large.xlsx
+++ b/result/compare/hybride/result-large.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\hybride\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702540E-F09C-4A6B-ABB6-20E4AC82CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458DA9E-4291-B24F-9E97-6C6F690F8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8370" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -457,11 +459,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -524,11 +530,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -591,11 +597,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1043,11 +1049,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1110,11 +1120,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1177,11 +1187,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3259,14 +3269,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>627943</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171985</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>389818</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
+      <xdr:rowOff>136526</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3281,10 +3291,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8247943" y="2510902"/>
-          <a:ext cx="7385050" cy="4822289"/>
-          <a:chOff x="8950324" y="2912317"/>
-          <a:chExt cx="8023225" cy="5095032"/>
+          <a:off x="8953499" y="3145456"/>
+          <a:ext cx="8087430" cy="4893292"/>
+          <a:chOff x="8950324" y="3302000"/>
+          <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3300,10 +3310,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="8950324" y="2912317"/>
-            <a:ext cx="8023225" cy="5095032"/>
-            <a:chOff x="8950324" y="2912317"/>
-            <a:chExt cx="8023225" cy="5095032"/>
+            <a:off x="8950324" y="3302000"/>
+            <a:ext cx="8023225" cy="4705349"/>
+            <a:chOff x="8950324" y="3302000"/>
+            <a:chExt cx="8023225" cy="4705349"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:graphicFrame macro="">
@@ -3383,8 +3393,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9312291" y="3178652"/>
-              <a:ext cx="5831287" cy="2782724"/>
+              <a:off x="9596663" y="3762350"/>
+              <a:ext cx="3644382" cy="1739121"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3426,8 +3436,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9069301" y="2912317"/>
-              <a:ext cx="6000894" cy="2862300"/>
+              <a:off x="9625261" y="3751052"/>
+              <a:ext cx="4295658" cy="2048939"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3844,16 +3854,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.90625" style="2"/>
+    <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3939,7 +3949,7 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>0.69918699186991873</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>

--- a/result/compare/hybride/result-large.xlsx
+++ b/result/compare/hybride/result-large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458DA9E-4291-B24F-9E97-6C6F690F8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8113519D-236E-A54E-89C1-67918B0BFB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -73,13 +73,13 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>yolov5m</t>
+    <t>Yolov5m driven</t>
   </si>
   <si>
-    <t>hybride</t>
+    <t>Depth map only</t>
   </si>
   <si>
-    <t>depthmap only</t>
+    <t>Hybride</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -456,18 +456,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -513,7 +509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap only</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,14 +523,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -580,7 +576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hybride</c:v>
+                  <c:v>Hybride</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -594,7 +590,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -657,6 +653,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -721,8 +731,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -836,8 +846,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1032,7 +1048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1046,18 +1062,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1103,7 +1115,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap only</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1117,14 +1129,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1170,7 +1182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hybride</c:v>
+                  <c:v>Hybride</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1197,6 +1209,30 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-D7F3-7448-ADC7-A496908D8F2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$L$5</c:f>
@@ -2196,7 +2232,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2223,8 +2259,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2304,11 +2340,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2319,11 +2350,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2335,7 +2361,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2355,9 +2381,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2370,10 +2393,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2413,22 +2436,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2533,8 +2557,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2666,19 +2690,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2692,6 +2717,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3269,14 +3305,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>627943</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>182123</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>389818</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>136526</xdr:rowOff>
+      <xdr:rowOff>133477</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3291,8 +3327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8953499" y="3145456"/>
-          <a:ext cx="8087430" cy="4893292"/>
+          <a:off x="8953499" y="3161947"/>
+          <a:ext cx="8087430" cy="4873752"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3346,17 +3382,19 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9530831" y="3758299"/>
-              <a:ext cx="7229306" cy="3437397"/>
+              <a:off x="9613398" y="3758299"/>
+              <a:ext cx="7146739" cy="3398138"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3393,13 +3431,13 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9596663" y="3762350"/>
-              <a:ext cx="3644382" cy="1739121"/>
+              <a:off x="9587284" y="3764178"/>
+              <a:ext cx="3651696" cy="1742611"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3436,15 +3474,15 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9625261" y="3751052"/>
-              <a:ext cx="4295658" cy="2048939"/>
+              <a:off x="9601283" y="3764179"/>
+              <a:ext cx="4293326" cy="2047826"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3852,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
-  <dimension ref="B2:N5"/>
+  <dimension ref="B2:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3863,7 +3901,7 @@
     <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3900,11 +3938,8 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3921,37 +3956,37 @@
         <v>16</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G5" si="0">C3+F3</f>
+        <f t="shared" ref="G3" si="0">C3+F3</f>
         <v>70</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H5" si="1">D3+E3</f>
+        <f t="shared" ref="H3" si="1">D3+E3</f>
         <v>53</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I5" si="2">C3/G3</f>
+        <f t="shared" ref="I3" si="2">C3/G3</f>
         <v>0.77142857142857146</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J5" si="3">D3/H3</f>
+        <f t="shared" ref="J3" si="3">D3/H3</f>
         <v>0.49056603773584906</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K5" si="4">I3</f>
+        <f t="shared" ref="K3" si="4">I3</f>
         <v>0.77142857142857146</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L5" si="5">C3/(C3+D3)</f>
+        <f t="shared" ref="L3" si="5">C3/(C3+D3)</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M5" si="6">(C3+E3)/(G3+H3)</f>
+        <f t="shared" ref="M3" si="6">(C3+E3)/(G3+H3)</f>
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>49</v>
@@ -3966,37 +4001,37 @@
         <v>21</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4" si="7">C4+F4</f>
         <v>70</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4" si="8">D4+E4</f>
         <v>53</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I4" si="9">C4/G4</f>
         <v>0.7</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J4" si="10">D4/H4</f>
         <v>0.30188679245283018</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K4" si="11">I4</f>
         <v>0.7</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L4" si="12">C4/(C4+D4)</f>
         <v>0.75384615384615383</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M4" si="13">(C4+E4)/(G4+H4)</f>
         <v>0.69918699186991873</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>58</v>
@@ -4011,31 +4046,31 @@
         <v>12</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G5" si="14">C5+F5</f>
         <v>70</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H5" si="15">D5+E5</f>
         <v>53</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I5" si="16">C5/G5</f>
         <v>0.82857142857142863</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J5" si="17">D5/H5</f>
         <v>0.33962264150943394</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K5" si="18">I5</f>
         <v>0.82857142857142863</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L5" si="19">C5/(C5+D5)</f>
         <v>0.76315789473684215</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M5" si="20">(C5+E5)/(G5+H5)</f>
         <v>0.75609756097560976</v>
       </c>
     </row>

--- a/result/compare/hybride/result-large.xlsx
+++ b/result/compare/hybride/result-large.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8113519D-236E-A54E-89C1-67918B0BFB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338D1BD-4FE4-0B40-A7C2-11938782782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -393,7 +393,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Roc Space</a:t>
+              <a:t>ROC Space</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3893,7 +3893,7 @@
   <dimension ref="B2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
